--- a/biology/Zoologie/Dactylotrochus/Dactylotrochus.xlsx
+++ b/biology/Zoologie/Dactylotrochus/Dactylotrochus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dactylotrochus forme un genre de coraux de la famille des Caryophylliidae, selon ITIS      (9 août 2015)[1], ou de la famille des Agariciidae, selon World Register of Marine Species                               (9 août 2015)[2] :
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dactylotrochus forme un genre de coraux de la famille des Caryophylliidae, selon ITIS      (9 août 2015), ou de la famille des Agariciidae, selon World Register of Marine Species                               (9 août 2015) :
 </t>
         </is>
       </c>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,6 +552,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -563,9 +579,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (9 août 2015)[2] et ITIS      (9 août 2015)[1], Coeloseris ne comprend que l'espèce suivante :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (9 août 2015) et ITIS      (9 août 2015), Coeloseris ne comprend que l'espèce suivante :
 Dactylotrochus cervicornis (Moseley, 1881)</t>
         </is>
       </c>
